--- a/lipid_platform/df_matched_4d.xlsx
+++ b/lipid_platform/df_matched_4d.xlsx
@@ -726,7 +726,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>1760</v>
+        <v>1790</v>
       </c>
       <c r="C2">
         <v>936681.3890380859</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="C6">
         <v>458210.3341369629</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>2041</v>
+        <v>2091</v>
       </c>
       <c r="C14">
         <v>281249.958694458</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>2601</v>
+        <v>2647</v>
       </c>
       <c r="C18">
         <v>748905.3743591309</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>2441</v>
+        <v>2489</v>
       </c>
       <c r="C22">
         <v>195273.7933197021</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="C30">
         <v>117382.528793335</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
-        <v>3162</v>
+        <v>3200</v>
       </c>
       <c r="C38">
         <v>600759.9008331299</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>3122</v>
+        <v>3133</v>
       </c>
       <c r="C42">
         <v>353015.243270874</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
-        <v>3603</v>
+        <v>3605</v>
       </c>
       <c r="C46">
         <v>804321.2179412842</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>3443</v>
+        <v>3521</v>
       </c>
       <c r="C50">
         <v>284194.1994476318</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1">
-        <v>4003</v>
+        <v>4059</v>
       </c>
       <c r="C54">
         <v>476493.9500274658</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1">
-        <v>3843</v>
+        <v>3861</v>
       </c>
       <c r="C59">
         <v>208529.2559356689</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1">
-        <v>3322</v>
+        <v>3331</v>
       </c>
       <c r="C68">
         <v>221335.8966674805</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1">
-        <v>3722</v>
+        <v>3730</v>
       </c>
       <c r="C72">
         <v>239618.597366333</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1">
-        <v>4566</v>
+        <v>4603</v>
       </c>
       <c r="C76">
         <v>446143.9313049316</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1">
-        <v>4525</v>
+        <v>4541</v>
       </c>
       <c r="C80">
         <v>269387.2787628174</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1">
-        <v>5007</v>
+        <v>5043</v>
       </c>
       <c r="C84">
         <v>628532.0082015991</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1">
-        <v>4847</v>
+        <v>4905</v>
       </c>
       <c r="C88">
         <v>166507.1514663696</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1">
-        <v>5407</v>
+        <v>5423</v>
       </c>
       <c r="C92">
         <v>354952.5478973389</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1">
-        <v>5247</v>
+        <v>5283</v>
       </c>
       <c r="C97">
         <v>106043.027130127</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1">
-        <v>4483</v>
+        <v>4521</v>
       </c>
       <c r="C102">
         <v>481354.7959289551</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1">
-        <v>4726</v>
+        <v>4741</v>
       </c>
       <c r="C106">
         <v>88661.22645568848</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1">
-        <v>5126</v>
+        <v>5148</v>
       </c>
       <c r="C110">
         <v>96133.98612976074</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1">
-        <v>5972</v>
+        <v>5986</v>
       </c>
       <c r="C114">
         <v>631667.5460510254</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1">
-        <v>5930</v>
+        <v>5946</v>
       </c>
       <c r="C118">
         <v>258250.1769104004</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1">
-        <v>6413</v>
+        <v>6485</v>
       </c>
       <c r="C122">
         <v>570529.2403717041</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1">
-        <v>6253</v>
+        <v>6331</v>
       </c>
       <c r="C126">
         <v>159179.3312988281</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1">
-        <v>6813</v>
+        <v>6887</v>
       </c>
       <c r="C130">
         <v>292105.5004119873</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1">
-        <v>6653</v>
+        <v>6691</v>
       </c>
       <c r="C135">
         <v>115552.7678833008</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1">
-        <v>5887</v>
+        <v>5908</v>
       </c>
       <c r="C140">
         <v>436398.9127197266</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1">
-        <v>6132</v>
+        <v>6133</v>
       </c>
       <c r="C144">
         <v>135152.1099243164</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1">
-        <v>6532</v>
+        <v>6569</v>
       </c>
       <c r="C148">
         <v>162934.710647583</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1">
-        <v>7380</v>
+        <v>7419</v>
       </c>
       <c r="C152">
         <v>229625.5169067383</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1">
-        <v>7337</v>
+        <v>7349</v>
       </c>
       <c r="C156">
         <v>163305.2714538574</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1">
-        <v>7821</v>
+        <v>7849</v>
       </c>
       <c r="C160">
         <v>250634.0775604248</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1">
-        <v>7581</v>
+        <v>7597</v>
       </c>
       <c r="C164">
         <v>758268.1962890625</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1">
-        <v>8221</v>
+        <v>8223</v>
       </c>
       <c r="C168">
         <v>120266.8286437988</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1">
-        <v>8061</v>
+        <v>8115</v>
       </c>
       <c r="C173">
         <v>54122.90386962891</v>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1">
-        <v>7293</v>
+        <v>7335</v>
       </c>
       <c r="C178">
         <v>395838.9477539062</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1">
-        <v>7540</v>
+        <v>7555</v>
       </c>
       <c r="C182">
         <v>61182.92427062988</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1">
-        <v>7940</v>
+        <v>7945</v>
       </c>
       <c r="C186">
         <v>49172.92352294922</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1">
-        <v>8746</v>
+        <v>8781</v>
       </c>
       <c r="C194">
         <v>194162.0332946777</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1">
-        <v>9231</v>
+        <v>9279</v>
       </c>
       <c r="C198">
         <v>303857.7622375488</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1">
-        <v>9631</v>
+        <v>9673</v>
       </c>
       <c r="C206">
         <v>139642.689956665</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1">
-        <v>9471</v>
+        <v>9531</v>
       </c>
       <c r="C211">
         <v>59113.24407958984</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1">
-        <v>8701</v>
+        <v>8741</v>
       </c>
       <c r="C216">
         <v>435112.0518188477</v>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1">
-        <v>8950</v>
+        <v>8981</v>
       </c>
       <c r="C220">
         <v>68383.90492248535</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1">
-        <v>9350</v>
+        <v>9375</v>
       </c>
       <c r="C224">
         <v>51209.70370483398</v>
@@ -10154,7 +10154,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1">
-        <v>10202</v>
+        <v>10241</v>
       </c>
       <c r="C228">
         <v>272750.4600219727</v>
@@ -10321,7 +10321,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1">
-        <v>10157</v>
+        <v>10169</v>
       </c>
       <c r="C232">
         <v>199370.0337219238</v>
@@ -10488,7 +10488,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1">
-        <v>10643</v>
+        <v>10705</v>
       </c>
       <c r="C236">
         <v>302594.9996185303</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1">
-        <v>10403</v>
+        <v>10423</v>
       </c>
       <c r="C240">
         <v>880807.0042724609</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1">
-        <v>11043</v>
+        <v>11045</v>
       </c>
       <c r="C244">
         <v>144539.0903930664</v>
@@ -11238,7 +11238,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1">
-        <v>10111</v>
+        <v>10153</v>
       </c>
       <c r="C254">
         <v>451739.4318847656</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1">
-        <v>10362</v>
+        <v>10373</v>
       </c>
       <c r="C258">
         <v>66863.36473083496</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1">
-        <v>10762</v>
+        <v>10773</v>
       </c>
       <c r="C262">
         <v>54304.52374267578</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1">
-        <v>11616</v>
+        <v>11653</v>
       </c>
       <c r="C266">
         <v>265167.2780609131</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1">
-        <v>11570</v>
+        <v>11572</v>
       </c>
       <c r="C270">
         <v>182658.1728210449</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1">
-        <v>12057</v>
+        <v>12077</v>
       </c>
       <c r="C274">
         <v>294765.6604309082</v>
@@ -12240,7 +12240,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1">
-        <v>11817</v>
+        <v>11853</v>
       </c>
       <c r="C278">
         <v>811544.2788085938</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1">
-        <v>12457</v>
+        <v>12459</v>
       </c>
       <c r="C282">
         <v>133675.1496505737</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1">
-        <v>12297</v>
+        <v>12373</v>
       </c>
       <c r="C287">
         <v>59053.82405090332</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1">
-        <v>11523</v>
+        <v>11547</v>
       </c>
       <c r="C292">
         <v>422675.0714111328</v>
@@ -12990,7 +12990,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1">
-        <v>11776</v>
+        <v>11803</v>
       </c>
       <c r="C296">
         <v>63743.76448059082</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1">
-        <v>12176</v>
+        <v>12177</v>
       </c>
       <c r="C300">
         <v>53486.04383850098</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="1">
-        <v>13032</v>
+        <v>13065</v>
       </c>
       <c r="C304">
         <v>277133.1613769531</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="1">
-        <v>12985</v>
+        <v>13013</v>
       </c>
       <c r="C308">
         <v>202387.7548828125</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="1">
-        <v>13473</v>
+        <v>13551</v>
       </c>
       <c r="C312">
         <v>311919.0620117188</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="1">
-        <v>13233</v>
+        <v>13311</v>
       </c>
       <c r="C316">
         <v>814181.3360595703</v>
@@ -13992,7 +13992,7 @@
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="1">
-        <v>13873</v>
+        <v>13909</v>
       </c>
       <c r="C320">
         <v>148462.8496170044</v>
@@ -14200,7 +14200,7 @@
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="1">
-        <v>13713</v>
+        <v>13767</v>
       </c>
       <c r="C325">
         <v>57585.5241394043</v>
@@ -14408,7 +14408,7 @@
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="1">
-        <v>12937</v>
+        <v>12963</v>
       </c>
       <c r="C330">
         <v>424072.408203125</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="1">
-        <v>13192</v>
+        <v>13210</v>
       </c>
       <c r="C334">
         <v>61133.96444702148</v>
@@ -14742,7 +14742,7 @@
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="1">
-        <v>13592</v>
+        <v>13630</v>
       </c>
       <c r="C338">
         <v>50664.24375915527</v>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="1">
-        <v>14450</v>
+        <v>14489</v>
       </c>
       <c r="C342">
         <v>270273.3193511963</v>
@@ -15076,7 +15076,7 @@
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="1">
-        <v>14402</v>
+        <v>14445</v>
       </c>
       <c r="C346">
         <v>190110.6933288574</v>
@@ -15243,7 +15243,7 @@
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="1">
-        <v>14891</v>
+        <v>14969</v>
       </c>
       <c r="C350">
         <v>314570.8817749023</v>
@@ -15410,7 +15410,7 @@
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="1">
-        <v>14651</v>
+        <v>14655</v>
       </c>
       <c r="C354">
         <v>807357.0438232422</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="1">
-        <v>15291</v>
+        <v>15325</v>
       </c>
       <c r="C358">
         <v>142822.1298522949</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="1">
-        <v>15131</v>
+        <v>15191</v>
       </c>
       <c r="C363">
         <v>57077.00421142578</v>
@@ -15993,7 +15993,7 @@
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="1">
-        <v>14353</v>
+        <v>14359</v>
       </c>
       <c r="C368">
         <v>413345.5504760742</v>
@@ -16160,7 +16160,7 @@
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="1">
-        <v>14610</v>
+        <v>14648</v>
       </c>
       <c r="C372">
         <v>60927.62422180176</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="1">
-        <v>15010</v>
+        <v>15021</v>
       </c>
       <c r="C376">
         <v>49523.1435546875</v>
@@ -16494,7 +16494,7 @@
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="1">
-        <v>15870</v>
+        <v>15873</v>
       </c>
       <c r="C380">
         <v>283508.1610107422</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="1">
-        <v>15821</v>
+        <v>15869</v>
       </c>
       <c r="C384">
         <v>190938.0332641602</v>
@@ -16828,7 +16828,7 @@
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="1">
-        <v>16311</v>
+        <v>16365</v>
       </c>
       <c r="C388">
         <v>327828.4837036133</v>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="392" spans="1:15">
       <c r="A392" s="1">
-        <v>16071</v>
+        <v>16115</v>
       </c>
       <c r="C392">
         <v>802491.7352294922</v>
@@ -17162,7 +17162,7 @@
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="1">
-        <v>16711</v>
+        <v>16733</v>
       </c>
       <c r="C396">
         <v>144155.5700378418</v>
@@ -17370,7 +17370,7 @@
     </row>
     <row r="401" spans="1:15">
       <c r="A401" s="1">
-        <v>16551</v>
+        <v>16571</v>
       </c>
       <c r="C401">
         <v>60429.78411865234</v>
@@ -17578,7 +17578,7 @@
     </row>
     <row r="406" spans="1:15">
       <c r="A406" s="1">
-        <v>15771</v>
+        <v>15790</v>
       </c>
       <c r="C406">
         <v>410492.8096923828</v>
@@ -17745,7 +17745,7 @@
     </row>
     <row r="410" spans="1:15">
       <c r="A410" s="1">
-        <v>16030</v>
+        <v>16050</v>
       </c>
       <c r="C410">
         <v>59309.02421569824</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="418" spans="1:15">
       <c r="A418" s="1">
-        <v>17292</v>
+        <v>17315</v>
       </c>
       <c r="C418">
         <v>259022.577835083</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="422" spans="1:15">
       <c r="A422" s="1">
-        <v>17242</v>
+        <v>17262</v>
       </c>
       <c r="C422">
         <v>180393.0531921387</v>
@@ -18413,7 +18413,7 @@
     </row>
     <row r="426" spans="1:15">
       <c r="A426" s="1">
-        <v>17733</v>
+        <v>17809</v>
       </c>
       <c r="C426">
         <v>296953.3605499268</v>
@@ -18580,7 +18580,7 @@
     </row>
     <row r="430" spans="1:15">
       <c r="A430" s="1">
-        <v>17493</v>
+        <v>17521</v>
       </c>
       <c r="C430">
         <v>778626.4345703125</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="434" spans="1:15">
       <c r="A434" s="1">
-        <v>18133</v>
+        <v>18201</v>
       </c>
       <c r="C434">
         <v>136523.7289886475</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="439" spans="1:15">
       <c r="A439" s="1">
-        <v>17973</v>
+        <v>17985</v>
       </c>
       <c r="C439">
         <v>55315.64390563965</v>
@@ -19163,7 +19163,7 @@
     </row>
     <row r="444" spans="1:15">
       <c r="A444" s="1">
-        <v>17191</v>
+        <v>17239</v>
       </c>
       <c r="C444">
         <v>407283.3889160156</v>
@@ -19330,7 +19330,7 @@
     </row>
     <row r="448" spans="1:15">
       <c r="A448" s="1">
-        <v>17452</v>
+        <v>17476</v>
       </c>
       <c r="C448">
         <v>60265.24415588379</v>
@@ -19497,7 +19497,7 @@
     </row>
     <row r="452" spans="1:15">
       <c r="A452" s="1">
-        <v>17852</v>
+        <v>17864</v>
       </c>
       <c r="C452">
         <v>47667.26344299316</v>
@@ -19664,7 +19664,7 @@
     </row>
     <row r="456" spans="1:15">
       <c r="A456" s="1">
-        <v>18716</v>
+        <v>18742</v>
       </c>
       <c r="C456">
         <v>366374.4466705322</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="460" spans="1:15">
       <c r="A460" s="1">
-        <v>18665</v>
+        <v>18708</v>
       </c>
       <c r="C460">
         <v>311807.4830627441</v>
@@ -19998,7 +19998,7 @@
     </row>
     <row r="464" spans="1:15">
       <c r="A464" s="1">
-        <v>19157</v>
+        <v>19173</v>
       </c>
       <c r="C464">
         <v>405683.4678649902</v>
@@ -20165,7 +20165,7 @@
     </row>
     <row r="468" spans="1:15">
       <c r="A468" s="1">
-        <v>18917</v>
+        <v>18989</v>
       </c>
       <c r="C468">
         <v>1067701.838989258</v>
@@ -20332,7 +20332,7 @@
     </row>
     <row r="472" spans="1:15">
       <c r="A472" s="1">
-        <v>19557</v>
+        <v>19599</v>
       </c>
       <c r="C472">
         <v>223267.4961090088</v>
@@ -20540,7 +20540,7 @@
     </row>
     <row r="477" spans="1:15">
       <c r="A477" s="1">
-        <v>19397</v>
+        <v>19409</v>
       </c>
       <c r="C477">
         <v>78062.26549530029</v>
@@ -20748,7 +20748,7 @@
     </row>
     <row r="482" spans="1:15">
       <c r="A482" s="1">
-        <v>18613</v>
+        <v>18615</v>
       </c>
       <c r="C482">
         <v>560016.7800292969</v>
@@ -21082,7 +21082,7 @@
     </row>
     <row r="490" spans="1:15">
       <c r="A490" s="1">
-        <v>19276</v>
+        <v>19277</v>
       </c>
       <c r="C490">
         <v>69857.64498901367</v>
@@ -21249,7 +21249,7 @@
     </row>
     <row r="494" spans="1:15">
       <c r="A494" s="1">
-        <v>20142</v>
+        <v>20165</v>
       </c>
       <c r="C494">
         <v>336431.1821899414</v>
@@ -21416,7 +21416,7 @@
     </row>
     <row r="498" spans="1:15">
       <c r="A498" s="1">
-        <v>20090</v>
+        <v>20132</v>
       </c>
       <c r="C498">
         <v>235818.1965332031</v>
@@ -21583,7 +21583,7 @@
     </row>
     <row r="502" spans="1:15">
       <c r="A502" s="1">
-        <v>20583</v>
+        <v>20639</v>
       </c>
       <c r="C502">
         <v>407151.0716247559</v>
@@ -21750,7 +21750,7 @@
     </row>
     <row r="506" spans="1:15">
       <c r="A506" s="1">
-        <v>20343</v>
+        <v>20347</v>
       </c>
       <c r="C506">
         <v>830059.3211669922</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="510" spans="1:15">
       <c r="A510" s="1">
-        <v>20983</v>
+        <v>21043</v>
       </c>
       <c r="C510">
         <v>178577.2334136963</v>
@@ -22333,7 +22333,7 @@
     </row>
     <row r="520" spans="1:15">
       <c r="A520" s="1">
-        <v>20037</v>
+        <v>20071</v>
       </c>
       <c r="C520">
         <v>431349.6107177734</v>
@@ -22500,7 +22500,7 @@
     </row>
     <row r="524" spans="1:15">
       <c r="A524" s="1">
-        <v>20302</v>
+        <v>20309</v>
       </c>
       <c r="C524">
         <v>71336.78509521484</v>
@@ -22667,7 +22667,7 @@
     </row>
     <row r="528" spans="1:15">
       <c r="A528" s="1">
-        <v>20702</v>
+        <v>20710</v>
       </c>
       <c r="C528">
         <v>56408.66384887695</v>
@@ -22834,7 +22834,7 @@
     </row>
     <row r="532" spans="1:15">
       <c r="A532" s="1">
-        <v>21570</v>
+        <v>21579</v>
       </c>
       <c r="C532">
         <v>310695.5817260742</v>
@@ -23001,7 +23001,7 @@
     </row>
     <row r="536" spans="1:15">
       <c r="A536" s="1">
-        <v>21517</v>
+        <v>21569</v>
       </c>
       <c r="C536">
         <v>236444.9566040039</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="540" spans="1:15">
       <c r="A540" s="1">
-        <v>22011</v>
+        <v>22013</v>
       </c>
       <c r="C540">
         <v>335365.8634643555</v>
@@ -23335,7 +23335,7 @@
     </row>
     <row r="544" spans="1:15">
       <c r="A544" s="1">
-        <v>21771</v>
+        <v>21843</v>
       </c>
       <c r="C544">
         <v>969185.0277099609</v>
@@ -23710,7 +23710,7 @@
     </row>
     <row r="553" spans="1:15">
       <c r="A553" s="1">
-        <v>22251</v>
+        <v>22277</v>
       </c>
       <c r="C553">
         <v>68716.58499908447</v>
@@ -23918,7 +23918,7 @@
     </row>
     <row r="558" spans="1:15">
       <c r="A558" s="1">
-        <v>21463</v>
+        <v>21487</v>
       </c>
       <c r="C558">
         <v>499976.8743896484</v>
@@ -24085,7 +24085,7 @@
     </row>
     <row r="562" spans="1:15">
       <c r="A562" s="1">
-        <v>21730</v>
+        <v>21748</v>
       </c>
       <c r="C562">
         <v>77472.98541259766</v>
@@ -24419,7 +24419,7 @@
     </row>
     <row r="570" spans="1:15">
       <c r="A570" s="1">
-        <v>23000</v>
+        <v>23019</v>
       </c>
       <c r="C570">
         <v>378158.5697021484</v>
@@ -24586,7 +24586,7 @@
     </row>
     <row r="574" spans="1:15">
       <c r="A574" s="1">
-        <v>22946</v>
+        <v>22948</v>
       </c>
       <c r="C574">
         <v>255891.5980224609</v>
@@ -24753,7 +24753,7 @@
     </row>
     <row r="578" spans="1:15">
       <c r="A578" s="1">
-        <v>23441</v>
+        <v>23517</v>
       </c>
       <c r="C578">
         <v>433423.2495574951</v>
@@ -25670,7 +25670,7 @@
     </row>
     <row r="600" spans="1:15">
       <c r="A600" s="1">
-        <v>23160</v>
+        <v>23183</v>
       </c>
       <c r="C600">
         <v>74703.40519714355</v>
@@ -25837,7 +25837,7 @@
     </row>
     <row r="604" spans="1:15">
       <c r="A604" s="1">
-        <v>23560</v>
+        <v>23562</v>
       </c>
       <c r="C604">
         <v>57980.00408935547</v>
@@ -26004,7 +26004,7 @@
     </row>
     <row r="608" spans="1:15">
       <c r="A608" s="1">
-        <v>24432</v>
+        <v>24434</v>
       </c>
       <c r="C608">
         <v>278723.9804534912</v>
@@ -26171,7 +26171,7 @@
     </row>
     <row r="612" spans="1:15">
       <c r="A612" s="1">
-        <v>24377</v>
+        <v>24393</v>
       </c>
       <c r="C612">
         <v>214076.5346679688</v>
@@ -26338,7 +26338,7 @@
     </row>
     <row r="616" spans="1:15">
       <c r="A616" s="1">
-        <v>24873</v>
+        <v>24909</v>
       </c>
       <c r="C616">
         <v>314496.4022827148</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="620" spans="1:15">
       <c r="A620" s="1">
-        <v>24633</v>
+        <v>24667</v>
       </c>
       <c r="C620">
         <v>855132.2038574219</v>
@@ -26672,7 +26672,7 @@
     </row>
     <row r="624" spans="1:15">
       <c r="A624" s="1">
-        <v>25273</v>
+        <v>25293</v>
       </c>
       <c r="C624">
         <v>144417.7107696533</v>
@@ -26880,7 +26880,7 @@
     </row>
     <row r="629" spans="1:15">
       <c r="A629" s="1">
-        <v>25113</v>
+        <v>25131</v>
       </c>
       <c r="C629">
         <v>59444.86431121826</v>
@@ -27088,7 +27088,7 @@
     </row>
     <row r="634" spans="1:15">
       <c r="A634" s="1">
-        <v>24321</v>
+        <v>24359</v>
       </c>
       <c r="C634">
         <v>443828.4134521484</v>
@@ -27255,7 +27255,7 @@
     </row>
     <row r="638" spans="1:15">
       <c r="A638" s="1">
-        <v>24592</v>
+        <v>24599</v>
       </c>
       <c r="C638">
         <v>64525.34446716309</v>
@@ -27422,7 +27422,7 @@
     </row>
     <row r="642" spans="1:15">
       <c r="A642" s="1">
-        <v>24992</v>
+        <v>25001</v>
       </c>
       <c r="C642">
         <v>52883.20375061035</v>
@@ -27589,7 +27589,7 @@
     </row>
     <row r="646" spans="1:15">
       <c r="A646" s="1">
-        <v>25866</v>
+        <v>25890</v>
       </c>
       <c r="C646">
         <v>364513.6269073486</v>
@@ -27756,7 +27756,7 @@
     </row>
     <row r="650" spans="1:15">
       <c r="A650" s="1">
-        <v>25810</v>
+        <v>25828</v>
       </c>
       <c r="C650">
         <v>255328.698059082</v>
@@ -27923,7 +27923,7 @@
     </row>
     <row r="654" spans="1:15">
       <c r="A654" s="1">
-        <v>26307</v>
+        <v>26361</v>
       </c>
       <c r="C654">
         <v>454054.6937255859</v>
@@ -28090,7 +28090,7 @@
     </row>
     <row r="658" spans="1:15">
       <c r="A658" s="1">
-        <v>26067</v>
+        <v>26125</v>
       </c>
       <c r="C658">
         <v>797385.1357421875</v>
@@ -28257,7 +28257,7 @@
     </row>
     <row r="662" spans="1:15">
       <c r="A662" s="1">
-        <v>26707</v>
+        <v>26709</v>
       </c>
       <c r="C662">
         <v>199358.9148712158</v>
@@ -28465,7 +28465,7 @@
     </row>
     <row r="667" spans="1:15">
       <c r="A667" s="1">
-        <v>26547</v>
+        <v>26611</v>
       </c>
       <c r="C667">
         <v>68123.18453216553</v>
@@ -28673,7 +28673,7 @@
     </row>
     <row r="672" spans="1:15">
       <c r="A672" s="1">
-        <v>25753</v>
+        <v>25759</v>
       </c>
       <c r="C672">
         <v>421635.2507324219</v>
@@ -28840,7 +28840,7 @@
     </row>
     <row r="676" spans="1:15">
       <c r="A676" s="1">
-        <v>26026</v>
+        <v>26051</v>
       </c>
       <c r="C676">
         <v>69708.32511901855</v>
@@ -29007,7 +29007,7 @@
     </row>
     <row r="680" spans="1:15">
       <c r="A680" s="1">
-        <v>26426</v>
+        <v>26465</v>
       </c>
       <c r="C680">
         <v>58679.20399475098</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="684" spans="1:15">
       <c r="A684" s="1">
-        <v>27302</v>
+        <v>27315</v>
       </c>
       <c r="C684">
         <v>236346.0759124756</v>
@@ -29341,7 +29341,7 @@
     </row>
     <row r="688" spans="1:15">
       <c r="A688" s="1">
-        <v>27245</v>
+        <v>27292</v>
       </c>
       <c r="C688">
         <v>175212.1319274902</v>
@@ -29508,7 +29508,7 @@
     </row>
     <row r="692" spans="1:15">
       <c r="A692" s="1">
-        <v>27743</v>
+        <v>27821</v>
       </c>
       <c r="C692">
         <v>252344.6000976562</v>
@@ -29675,7 +29675,7 @@
     </row>
     <row r="696" spans="1:15">
       <c r="A696" s="1">
-        <v>27503</v>
+        <v>27505</v>
       </c>
       <c r="C696">
         <v>813069.8760986328</v>
@@ -29842,7 +29842,7 @@
     </row>
     <row r="700" spans="1:15">
       <c r="A700" s="1">
-        <v>28143</v>
+        <v>28181</v>
       </c>
       <c r="C700">
         <v>116964.3682403564</v>
@@ -30050,7 +30050,7 @@
     </row>
     <row r="705" spans="1:15">
       <c r="A705" s="1">
-        <v>27983</v>
+        <v>28027</v>
       </c>
       <c r="C705">
         <v>53505.3837890625</v>
@@ -30258,7 +30258,7 @@
     </row>
     <row r="710" spans="1:15">
       <c r="A710" s="1">
-        <v>27187</v>
+        <v>27197</v>
       </c>
       <c r="C710">
         <v>419101.548828125</v>
@@ -30592,7 +30592,7 @@
     </row>
     <row r="718" spans="1:15">
       <c r="A718" s="1">
-        <v>27862</v>
+        <v>27886</v>
       </c>
       <c r="C718">
         <v>48064.12338256836</v>
@@ -30759,7 +30759,7 @@
     </row>
     <row r="722" spans="1:15">
       <c r="A722" s="1">
-        <v>28740</v>
+        <v>28755</v>
       </c>
       <c r="C722">
         <v>222582.1557617188</v>
@@ -30926,7 +30926,7 @@
     </row>
     <row r="726" spans="1:15">
       <c r="A726" s="1">
-        <v>28682</v>
+        <v>28739</v>
       </c>
       <c r="C726">
         <v>160332.4110107422</v>
@@ -31093,7 +31093,7 @@
     </row>
     <row r="730" spans="1:15">
       <c r="A730" s="1">
-        <v>29181</v>
+        <v>29197</v>
       </c>
       <c r="C730">
         <v>236154.6160736084</v>
@@ -31260,7 +31260,7 @@
     </row>
     <row r="734" spans="1:15">
       <c r="A734" s="1">
-        <v>28941</v>
+        <v>28971</v>
       </c>
       <c r="C734">
         <v>724304.3900146484</v>
@@ -31427,7 +31427,7 @@
     </row>
     <row r="738" spans="1:15">
       <c r="A738" s="1">
-        <v>29581</v>
+        <v>29597</v>
       </c>
       <c r="C738">
         <v>107052.4879226685</v>
@@ -31635,7 +31635,7 @@
     </row>
     <row r="743" spans="1:15">
       <c r="A743" s="1">
-        <v>29421</v>
+        <v>29479</v>
       </c>
       <c r="C743">
         <v>48901.50340270996</v>
@@ -31843,7 +31843,7 @@
     </row>
     <row r="748" spans="1:15">
       <c r="A748" s="1">
-        <v>28623</v>
+        <v>28670</v>
       </c>
       <c r="C748">
         <v>373046.9461669922</v>
@@ -32010,7 +32010,7 @@
     </row>
     <row r="752" spans="1:15">
       <c r="A752" s="1">
-        <v>28900</v>
+        <v>28901</v>
       </c>
       <c r="C752">
         <v>55933.50389099121</v>
@@ -32177,7 +32177,7 @@
     </row>
     <row r="756" spans="1:15">
       <c r="A756" s="1">
-        <v>29300</v>
+        <v>29336</v>
       </c>
       <c r="C756">
         <v>44193.22315979004</v>
@@ -32344,7 +32344,7 @@
     </row>
     <row r="760" spans="1:15">
       <c r="A760" s="1">
-        <v>30180</v>
+        <v>30181</v>
       </c>
       <c r="C760">
         <v>265232.2185974121</v>
@@ -32511,7 +32511,7 @@
     </row>
     <row r="764" spans="1:15">
       <c r="A764" s="1">
-        <v>30121</v>
+        <v>30163</v>
       </c>
       <c r="C764">
         <v>172710.3122253418</v>
@@ -32678,7 +32678,7 @@
     </row>
     <row r="768" spans="1:15">
       <c r="A768" s="1">
-        <v>30621</v>
+        <v>30699</v>
       </c>
       <c r="C768">
         <v>277571.9990386963</v>
@@ -32845,7 +32845,7 @@
     </row>
     <row r="772" spans="1:15">
       <c r="A772" s="1">
-        <v>30381</v>
+        <v>30455</v>
       </c>
       <c r="C772">
         <v>778473.8953857422</v>
@@ -33012,7 +33012,7 @@
     </row>
     <row r="776" spans="1:15">
       <c r="A776" s="1">
-        <v>31021</v>
+        <v>31057</v>
       </c>
       <c r="C776">
         <v>125121.5889434814</v>
@@ -33220,7 +33220,7 @@
     </row>
     <row r="781" spans="1:15">
       <c r="A781" s="1">
-        <v>30861</v>
+        <v>30903</v>
       </c>
       <c r="C781">
         <v>57843.42399597168</v>
@@ -33595,7 +33595,7 @@
     </row>
     <row r="790" spans="1:15">
       <c r="A790" s="1">
-        <v>30340</v>
+        <v>30344</v>
       </c>
       <c r="C790">
         <v>63091.44445800781</v>
@@ -33762,7 +33762,7 @@
     </row>
     <row r="794" spans="1:15">
       <c r="A794" s="1">
-        <v>30740</v>
+        <v>30745</v>
       </c>
       <c r="C794">
         <v>53578.0037689209</v>
@@ -33929,7 +33929,7 @@
     </row>
     <row r="798" spans="1:15">
       <c r="A798" s="1">
-        <v>31622</v>
+        <v>31653</v>
       </c>
       <c r="C798">
         <v>281103.640045166</v>
@@ -34096,7 +34096,7 @@
     </row>
     <row r="802" spans="1:15">
       <c r="A802" s="1">
-        <v>31562</v>
+        <v>31564</v>
       </c>
       <c r="C802">
         <v>200211.674987793</v>
@@ -34263,7 +34263,7 @@
     </row>
     <row r="806" spans="1:15">
       <c r="A806" s="1">
-        <v>32063</v>
+        <v>32079</v>
       </c>
       <c r="C806">
         <v>318274.5650100708</v>
@@ -34430,7 +34430,7 @@
     </row>
     <row r="810" spans="1:15">
       <c r="A810" s="1">
-        <v>31823</v>
+        <v>31881</v>
       </c>
       <c r="C810">
         <v>817404.7015380859</v>
@@ -34597,7 +34597,7 @@
     </row>
     <row r="814" spans="1:15">
       <c r="A814" s="1">
-        <v>32463</v>
+        <v>32537</v>
       </c>
       <c r="C814">
         <v>142691.2895812988</v>
@@ -34805,7 +34805,7 @@
     </row>
     <row r="819" spans="1:15">
       <c r="A819" s="1">
-        <v>32303</v>
+        <v>32305</v>
       </c>
       <c r="C819">
         <v>57339.14401245117</v>
@@ -35013,7 +35013,7 @@
     </row>
     <row r="824" spans="1:15">
       <c r="A824" s="1">
-        <v>31501</v>
+        <v>31545</v>
       </c>
       <c r="C824">
         <v>419829.4484863281</v>
@@ -35180,7 +35180,7 @@
     </row>
     <row r="828" spans="1:15">
       <c r="A828" s="1">
-        <v>31782</v>
+        <v>31795</v>
       </c>
       <c r="C828">
         <v>58001.84428405762</v>
@@ -35347,7 +35347,7 @@
     </row>
     <row r="832" spans="1:15">
       <c r="A832" s="1">
-        <v>32182</v>
+        <v>32207</v>
       </c>
       <c r="C832">
         <v>51678.3636932373</v>
@@ -35514,7 +35514,7 @@
     </row>
     <row r="836" spans="1:15">
       <c r="A836" s="1">
-        <v>33066</v>
+        <v>33074</v>
       </c>
       <c r="C836">
         <v>240681.5967559814</v>
@@ -35681,7 +35681,7 @@
     </row>
     <row r="840" spans="1:15">
       <c r="A840" s="1">
-        <v>33005</v>
+        <v>33025</v>
       </c>
       <c r="C840">
         <v>168617.572265625</v>
@@ -35848,7 +35848,7 @@
     </row>
     <row r="844" spans="1:15">
       <c r="A844" s="1">
-        <v>33507</v>
+        <v>33553</v>
       </c>
       <c r="C844">
         <v>248617.0380554199</v>
@@ -36015,7 +36015,7 @@
     </row>
     <row r="848" spans="1:15">
       <c r="A848" s="1">
-        <v>33267</v>
+        <v>33309</v>
       </c>
       <c r="C848">
         <v>754512.0710449219</v>
@@ -36182,7 +36182,7 @@
     </row>
     <row r="852" spans="1:15">
       <c r="A852" s="1">
-        <v>33907</v>
+        <v>33971</v>
       </c>
       <c r="C852">
         <v>112029.5078887939</v>
@@ -36390,7 +36390,7 @@
     </row>
     <row r="857" spans="1:15">
       <c r="A857" s="1">
-        <v>33747</v>
+        <v>33769</v>
       </c>
       <c r="C857">
         <v>53754.92381286621</v>
@@ -36598,7 +36598,7 @@
     </row>
     <row r="862" spans="1:15">
       <c r="A862" s="1">
-        <v>32943</v>
+        <v>32975</v>
       </c>
       <c r="C862">
         <v>396270.6884155273</v>
@@ -36765,7 +36765,7 @@
     </row>
     <row r="866" spans="1:15">
       <c r="A866" s="1">
-        <v>33226</v>
+        <v>33227</v>
       </c>
       <c r="C866">
         <v>62189.20455932617</v>
@@ -36932,7 +36932,7 @@
     </row>
     <row r="870" spans="1:15">
       <c r="A870" s="1">
-        <v>33626</v>
+        <v>33633</v>
       </c>
       <c r="C870">
         <v>48368.20327758789</v>
@@ -37099,7 +37099,7 @@
     </row>
     <row r="874" spans="1:15">
       <c r="A874" s="1">
-        <v>34512</v>
+        <v>34520</v>
       </c>
       <c r="C874">
         <v>283458.7005310059</v>
@@ -37266,7 +37266,7 @@
     </row>
     <row r="878" spans="1:15">
       <c r="A878" s="1">
-        <v>34450</v>
+        <v>34456</v>
       </c>
       <c r="C878">
         <v>196439.6938476562</v>
@@ -37433,7 +37433,7 @@
     </row>
     <row r="882" spans="1:15">
       <c r="A882" s="1">
-        <v>34953</v>
+        <v>34955</v>
       </c>
       <c r="C882">
         <v>315956.7010345459</v>
@@ -37600,7 +37600,7 @@
     </row>
     <row r="886" spans="1:15">
       <c r="A886" s="1">
-        <v>34713</v>
+        <v>34729</v>
       </c>
       <c r="C886">
         <v>841658.7385253906</v>
@@ -37767,7 +37767,7 @@
     </row>
     <row r="890" spans="1:15">
       <c r="A890" s="1">
-        <v>35353</v>
+        <v>35431</v>
       </c>
       <c r="C890">
         <v>137504.5693511963</v>
@@ -37975,7 +37975,7 @@
     </row>
     <row r="895" spans="1:15">
       <c r="A895" s="1">
-        <v>35193</v>
+        <v>35243</v>
       </c>
       <c r="C895">
         <v>59456.68421936035</v>
@@ -38183,7 +38183,7 @@
     </row>
     <row r="900" spans="1:15">
       <c r="A900" s="1">
-        <v>34387</v>
+        <v>34425</v>
       </c>
       <c r="C900">
         <v>435541.6507568359</v>
@@ -38517,7 +38517,7 @@
     </row>
     <row r="908" spans="1:15">
       <c r="A908" s="1">
-        <v>35072</v>
+        <v>35104</v>
       </c>
       <c r="C908">
         <v>53862.36383056641</v>
@@ -38684,7 +38684,7 @@
     </row>
     <row r="912" spans="1:15">
       <c r="A912" s="1">
-        <v>35960</v>
+        <v>35993</v>
       </c>
       <c r="C912">
         <v>231041.2761383057</v>
@@ -38851,7 +38851,7 @@
     </row>
     <row r="916" spans="1:15">
       <c r="A916" s="1">
-        <v>35897</v>
+        <v>35899</v>
       </c>
       <c r="C916">
         <v>164857.592300415</v>
@@ -39018,7 +39018,7 @@
     </row>
     <row r="920" spans="1:15">
       <c r="A920" s="1">
-        <v>36401</v>
+        <v>36437</v>
       </c>
       <c r="C920">
         <v>247693.1772384644</v>
@@ -39185,7 +39185,7 @@
     </row>
     <row r="924" spans="1:15">
       <c r="A924" s="1">
-        <v>36161</v>
+        <v>36163</v>
       </c>
       <c r="C924">
         <v>708053.5495605469</v>
@@ -39352,7 +39352,7 @@
     </row>
     <row r="928" spans="1:15">
       <c r="A928" s="1">
-        <v>36801</v>
+        <v>36865</v>
       </c>
       <c r="C928">
         <v>111722.2874450684</v>
@@ -39560,7 +39560,7 @@
     </row>
     <row r="933" spans="1:15">
       <c r="A933" s="1">
-        <v>36641</v>
+        <v>36677</v>
       </c>
       <c r="C933">
         <v>50226.56356811523</v>
@@ -39768,7 +39768,7 @@
     </row>
     <row r="938" spans="1:15">
       <c r="A938" s="1">
-        <v>35833</v>
+        <v>35895</v>
       </c>
       <c r="C938">
         <v>368631.1460571289</v>
@@ -39935,7 +39935,7 @@
     </row>
     <row r="942" spans="1:15">
       <c r="A942" s="1">
-        <v>36120</v>
+        <v>36147</v>
       </c>
       <c r="C942">
         <v>56384.36399841309</v>
@@ -40102,7 +40102,7 @@
     </row>
     <row r="946" spans="1:15">
       <c r="A946" s="1">
-        <v>36520</v>
+        <v>36556</v>
       </c>
       <c r="C946">
         <v>44607.08322143555</v>
@@ -40269,7 +40269,7 @@
     </row>
     <row r="950" spans="1:15">
       <c r="A950" s="1">
-        <v>37410</v>
+        <v>37445</v>
       </c>
       <c r="C950">
         <v>271201.3782653809</v>
@@ -40436,7 +40436,7 @@
     </row>
     <row r="954" spans="1:15">
       <c r="A954" s="1">
-        <v>37346</v>
+        <v>37402</v>
       </c>
       <c r="C954">
         <v>205336.5349731445</v>
@@ -40603,7 +40603,7 @@
     </row>
     <row r="958" spans="1:15">
       <c r="A958" s="1">
-        <v>37851</v>
+        <v>37929</v>
       </c>
       <c r="C958">
         <v>298730.6227874756</v>
@@ -40770,7 +40770,7 @@
     </row>
     <row r="962" spans="1:15">
       <c r="A962" s="1">
-        <v>37611</v>
+        <v>37661</v>
       </c>
       <c r="C962">
         <v>837334.9008789062</v>
@@ -41145,7 +41145,7 @@
     </row>
     <row r="971" spans="1:15">
       <c r="A971" s="1">
-        <v>38091</v>
+        <v>38149</v>
       </c>
       <c r="C971">
         <v>56850.58396911621</v>
@@ -41520,7 +41520,7 @@
     </row>
     <row r="980" spans="1:15">
       <c r="A980" s="1">
-        <v>37570</v>
+        <v>37599</v>
       </c>
       <c r="C980">
         <v>62981.54457092285</v>
@@ -41687,7 +41687,7 @@
     </row>
     <row r="984" spans="1:15">
       <c r="A984" s="1">
-        <v>37970</v>
+        <v>37975</v>
       </c>
       <c r="C984">
         <v>49603.92345428467</v>
@@ -42021,7 +42021,7 @@
     </row>
     <row r="992" spans="1:15">
       <c r="A992" s="1">
-        <v>38797</v>
+        <v>38799</v>
       </c>
       <c r="C992">
         <v>185862.3529815674</v>
@@ -42188,7 +42188,7 @@
     </row>
     <row r="996" spans="1:15">
       <c r="A996" s="1">
-        <v>39303</v>
+        <v>39357</v>
       </c>
       <c r="C996">
         <v>297376.9395294189</v>
@@ -42355,7 +42355,7 @@
     </row>
     <row r="1000" spans="1:15">
       <c r="A1000" s="1">
-        <v>39063</v>
+        <v>39069</v>
       </c>
       <c r="C1000">
         <v>747838.6331787109</v>
@@ -42522,7 +42522,7 @@
     </row>
     <row r="1004" spans="1:15">
       <c r="A1004" s="1">
-        <v>39703</v>
+        <v>39709</v>
       </c>
       <c r="C1004">
         <v>132804.0495758057</v>
@@ -42730,7 +42730,7 @@
     </row>
     <row r="1009" spans="1:15">
       <c r="A1009" s="1">
-        <v>39543</v>
+        <v>39545</v>
       </c>
       <c r="C1009">
         <v>53727.24401092529</v>
@@ -42938,7 +42938,7 @@
     </row>
     <row r="1014" spans="1:15">
       <c r="A1014" s="1">
-        <v>38731</v>
+        <v>38771</v>
       </c>
       <c r="C1014">
         <v>387504.987487793</v>
@@ -43105,7 +43105,7 @@
     </row>
     <row r="1018" spans="1:15">
       <c r="A1018" s="1">
-        <v>39022</v>
+        <v>39025</v>
       </c>
       <c r="C1018">
         <v>60357.36430358887</v>
@@ -43272,7 +43272,7 @@
     </row>
     <row r="1022" spans="1:15">
       <c r="A1022" s="1">
-        <v>39422</v>
+        <v>39432</v>
       </c>
       <c r="C1022">
         <v>48109.08329772949</v>
@@ -43439,7 +43439,7 @@
     </row>
     <row r="1026" spans="1:15">
       <c r="A1026" s="1">
-        <v>40316</v>
+        <v>40354</v>
       </c>
       <c r="C1026">
         <v>249263.2182617188</v>
@@ -43606,7 +43606,7 @@
     </row>
     <row r="1030" spans="1:15">
       <c r="A1030" s="1">
-        <v>40250</v>
+        <v>40252</v>
       </c>
       <c r="C1030">
         <v>181192.993270874</v>
@@ -43773,7 +43773,7 @@
     </row>
     <row r="1034" spans="1:15">
       <c r="A1034" s="1">
-        <v>40757</v>
+        <v>40829</v>
       </c>
       <c r="C1034">
         <v>273504.6986846924</v>
@@ -44107,7 +44107,7 @@
     </row>
     <row r="1042" spans="1:15">
       <c r="A1042" s="1">
-        <v>41157</v>
+        <v>41173</v>
       </c>
       <c r="C1042">
         <v>121958.3291473389</v>
@@ -44315,7 +44315,7 @@
     </row>
     <row r="1047" spans="1:15">
       <c r="A1047" s="1">
-        <v>40997</v>
+        <v>41033</v>
       </c>
       <c r="C1047">
         <v>53729.78384399414</v>
@@ -44523,7 +44523,7 @@
     </row>
     <row r="1052" spans="1:15">
       <c r="A1052" s="1">
-        <v>40183</v>
+        <v>40246</v>
       </c>
       <c r="C1052">
         <v>447374.1320800781</v>
@@ -44690,7 +44690,7 @@
     </row>
     <row r="1056" spans="1:15">
       <c r="A1056" s="1">
-        <v>40476</v>
+        <v>40486</v>
       </c>
       <c r="C1056">
         <v>61994.20457458496</v>
@@ -44857,7 +44857,7 @@
     </row>
     <row r="1060" spans="1:15">
       <c r="A1060" s="1">
-        <v>40876</v>
+        <v>40893</v>
       </c>
       <c r="C1060">
         <v>49284.80339050293</v>
@@ -45024,7 +45024,7 @@
     </row>
     <row r="1064" spans="1:15">
       <c r="A1064" s="1">
-        <v>41772</v>
+        <v>41775</v>
       </c>
       <c r="C1064">
         <v>263450.0598754883</v>
@@ -45191,7 +45191,7 @@
     </row>
     <row r="1068" spans="1:15">
       <c r="A1068" s="1">
-        <v>41705</v>
+        <v>41764</v>
       </c>
       <c r="C1068">
         <v>178291.6921386719</v>
@@ -45358,7 +45358,7 @@
     </row>
     <row r="1072" spans="1:15">
       <c r="A1072" s="1">
-        <v>42213</v>
+        <v>42219</v>
       </c>
       <c r="C1072">
         <v>293890.7831573486</v>
@@ -45525,7 +45525,7 @@
     </row>
     <row r="1076" spans="1:15">
       <c r="A1076" s="1">
-        <v>41973</v>
+        <v>41977</v>
       </c>
       <c r="C1076">
         <v>755708.2952880859</v>
@@ -45692,7 +45692,7 @@
     </row>
     <row r="1080" spans="1:15">
       <c r="A1080" s="1">
-        <v>42613</v>
+        <v>42689</v>
       </c>
       <c r="C1080">
         <v>134399.2094421387</v>
@@ -45900,7 +45900,7 @@
     </row>
     <row r="1085" spans="1:15">
       <c r="A1085" s="1">
-        <v>42453</v>
+        <v>42513</v>
       </c>
       <c r="C1085">
         <v>56881.66407775879</v>
@@ -46108,7 +46108,7 @@
     </row>
     <row r="1090" spans="1:15">
       <c r="A1090" s="1">
-        <v>41637</v>
+        <v>41699</v>
       </c>
       <c r="C1090">
         <v>395536.3688964844</v>
@@ -46275,7 +46275,7 @@
     </row>
     <row r="1094" spans="1:15">
       <c r="A1094" s="1">
-        <v>41932</v>
+        <v>41970</v>
       </c>
       <c r="C1094">
         <v>56854.60424804688</v>
@@ -46442,7 +46442,7 @@
     </row>
     <row r="1098" spans="1:15">
       <c r="A1098" s="1">
-        <v>42332</v>
+        <v>42351</v>
       </c>
       <c r="C1098">
         <v>49153.3833770752</v>
@@ -46609,7 +46609,7 @@
     </row>
     <row r="1102" spans="1:15">
       <c r="A1102" s="1">
-        <v>43230</v>
+        <v>43242</v>
       </c>
       <c r="C1102">
         <v>257530.9785766602</v>
@@ -46943,7 +46943,7 @@
     </row>
     <row r="1110" spans="1:15">
       <c r="A1110" s="1">
-        <v>43671</v>
+        <v>43691</v>
       </c>
       <c r="C1110">
         <v>288849.740814209</v>
@@ -47110,7 +47110,7 @@
     </row>
     <row r="1114" spans="1:15">
       <c r="A1114" s="1">
-        <v>43431</v>
+        <v>43509</v>
       </c>
       <c r="C1114">
         <v>783691.3161621094</v>
@@ -47277,7 +47277,7 @@
     </row>
     <row r="1118" spans="1:15">
       <c r="A1118" s="1">
-        <v>44071</v>
+        <v>44073</v>
       </c>
       <c r="C1118">
         <v>128662.1084060669</v>
@@ -47485,7 +47485,7 @@
     </row>
     <row r="1123" spans="1:15">
       <c r="A1123" s="1">
-        <v>43911</v>
+        <v>43975</v>
       </c>
       <c r="C1123">
         <v>56458.22396087646</v>
@@ -47693,7 +47693,7 @@
     </row>
     <row r="1128" spans="1:15">
       <c r="A1128" s="1">
-        <v>43093</v>
+        <v>43115</v>
       </c>
       <c r="C1128">
         <v>405199.9898071289</v>
@@ -47860,7 +47860,7 @@
     </row>
     <row r="1132" spans="1:15">
       <c r="A1132" s="1">
-        <v>43390</v>
+        <v>43414</v>
       </c>
       <c r="C1132">
         <v>60179.46435546875</v>
@@ -48027,7 +48027,7 @@
     </row>
     <row r="1136" spans="1:15">
       <c r="A1136" s="1">
-        <v>43790</v>
+        <v>43813</v>
       </c>
       <c r="C1136">
         <v>52208.64363098145</v>
@@ -48194,7 +48194,7 @@
     </row>
     <row r="1140" spans="1:15">
       <c r="A1140" s="1">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="C1140">
         <v>278539.2188873291</v>
@@ -48361,7 +48361,7 @@
     </row>
     <row r="1144" spans="1:15">
       <c r="A1144" s="1">
-        <v>44621</v>
+        <v>44627</v>
       </c>
       <c r="C1144">
         <v>208155.8349151611</v>
@@ -48528,7 +48528,7 @@
     </row>
     <row r="1148" spans="1:15">
       <c r="A1148" s="1">
-        <v>45131</v>
+        <v>45183</v>
       </c>
       <c r="C1148">
         <v>319166.1025390625</v>
@@ -48695,7 +48695,7 @@
     </row>
     <row r="1152" spans="1:15">
       <c r="A1152" s="1">
-        <v>44891</v>
+        <v>44909</v>
       </c>
       <c r="C1152">
         <v>814649.1988525391</v>
@@ -48862,7 +48862,7 @@
     </row>
     <row r="1156" spans="1:15">
       <c r="A1156" s="1">
-        <v>45531</v>
+        <v>45573</v>
       </c>
       <c r="C1156">
         <v>158011.4910583496</v>
@@ -49070,7 +49070,7 @@
     </row>
     <row r="1161" spans="1:15">
       <c r="A1161" s="1">
-        <v>45371</v>
+        <v>45393</v>
       </c>
       <c r="C1161">
         <v>61156.12432098389</v>
@@ -49278,7 +49278,7 @@
     </row>
     <row r="1166" spans="1:15">
       <c r="A1166" s="1">
-        <v>44551</v>
+        <v>44619</v>
       </c>
       <c r="C1166">
         <v>421444.0893554688</v>
@@ -49445,7 +49445,7 @@
     </row>
     <row r="1170" spans="1:15">
       <c r="A1170" s="1">
-        <v>44850</v>
+        <v>44886</v>
       </c>
       <c r="C1170">
         <v>62483.26452636719</v>
@@ -49612,7 +49612,7 @@
     </row>
     <row r="1174" spans="1:15">
       <c r="A1174" s="1">
-        <v>45250</v>
+        <v>45270</v>
       </c>
       <c r="C1174">
         <v>55173.86381530762</v>
@@ -49779,7 +49779,7 @@
     </row>
     <row r="1178" spans="1:15">
       <c r="A1178" s="1">
-        <v>46152</v>
+        <v>46155</v>
       </c>
       <c r="C1178">
         <v>271718.7183837891</v>
@@ -49946,7 +49946,7 @@
     </row>
     <row r="1182" spans="1:15">
       <c r="A1182" s="1">
-        <v>46082</v>
+        <v>46116</v>
       </c>
       <c r="C1182">
         <v>181855.6336364746</v>
@@ -50280,7 +50280,7 @@
     </row>
     <row r="1190" spans="1:15">
       <c r="A1190" s="1">
-        <v>46353</v>
+        <v>46371</v>
       </c>
       <c r="C1190">
         <v>777911.6364746094</v>
@@ -50447,7 +50447,7 @@
     </row>
     <row r="1194" spans="1:15">
       <c r="A1194" s="1">
-        <v>46993</v>
+        <v>47071</v>
       </c>
       <c r="C1194">
         <v>133241.7690582275</v>
@@ -50655,7 +50655,7 @@
     </row>
     <row r="1199" spans="1:15">
       <c r="A1199" s="1">
-        <v>46833</v>
+        <v>46891</v>
       </c>
       <c r="C1199">
         <v>56911.00405883789</v>
@@ -50863,7 +50863,7 @@
     </row>
     <row r="1204" spans="1:15">
       <c r="A1204" s="1">
-        <v>46011</v>
+        <v>46077</v>
       </c>
       <c r="C1204">
         <v>403050.7285766602</v>
@@ -51030,7 +51030,7 @@
     </row>
     <row r="1208" spans="1:15">
       <c r="A1208" s="1">
-        <v>46312</v>
+        <v>46337</v>
       </c>
       <c r="C1208">
         <v>55866.76387023926</v>
@@ -51364,7 +51364,7 @@
     </row>
     <row r="1216" spans="1:15">
       <c r="A1216" s="1">
-        <v>47616</v>
+        <v>47652</v>
       </c>
       <c r="C1216">
         <v>259208.1589508057</v>
@@ -51531,7 +51531,7 @@
     </row>
     <row r="1220" spans="1:15">
       <c r="A1220" s="1">
-        <v>47545</v>
+        <v>47555</v>
       </c>
       <c r="C1220">
         <v>186478.1930084229</v>
@@ -51698,7 +51698,7 @@
     </row>
     <row r="1224" spans="1:15">
       <c r="A1224" s="1">
-        <v>48057</v>
+        <v>48135</v>
       </c>
       <c r="C1224">
         <v>279149.4804382324</v>
@@ -52032,7 +52032,7 @@
     </row>
     <row r="1232" spans="1:15">
       <c r="A1232" s="1">
-        <v>48457</v>
+        <v>48479</v>
       </c>
       <c r="C1232">
         <v>137163.2500610352</v>
@@ -52240,7 +52240,7 @@
     </row>
     <row r="1237" spans="1:15">
       <c r="A1237" s="1">
-        <v>48297</v>
+        <v>48341</v>
       </c>
       <c r="C1237">
         <v>58813.60406494141</v>
@@ -52448,7 +52448,7 @@
     </row>
     <row r="1242" spans="1:15">
       <c r="A1242" s="1">
-        <v>47473</v>
+        <v>47543</v>
       </c>
       <c r="C1242">
         <v>443894.6715698242</v>
@@ -52782,7 +52782,7 @@
     </row>
     <row r="1250" spans="1:15">
       <c r="A1250" s="1">
-        <v>48176</v>
+        <v>48191</v>
       </c>
       <c r="C1250">
         <v>51879.2638092041</v>
@@ -52949,7 +52949,7 @@
     </row>
     <row r="1254" spans="1:15">
       <c r="A1254" s="1">
-        <v>49082</v>
+        <v>49119</v>
       </c>
       <c r="C1254">
         <v>289319.9807281494</v>
@@ -53116,7 +53116,7 @@
     </row>
     <row r="1258" spans="1:15">
       <c r="A1258" s="1">
-        <v>49010</v>
+        <v>49014</v>
       </c>
       <c r="C1258">
         <v>212338.2951965332</v>
@@ -53283,7 +53283,7 @@
     </row>
     <row r="1262" spans="1:15">
       <c r="A1262" s="1">
-        <v>49523</v>
+        <v>49569</v>
       </c>
       <c r="C1262">
         <v>324727.3236083984</v>
@@ -53450,7 +53450,7 @@
     </row>
     <row r="1266" spans="1:15">
       <c r="A1266" s="1">
-        <v>49283</v>
+        <v>49329</v>
       </c>
       <c r="C1266">
         <v>871624.9207763672</v>
@@ -53617,7 +53617,7 @@
     </row>
     <row r="1270" spans="1:15">
       <c r="A1270" s="1">
-        <v>49923</v>
+        <v>50001</v>
       </c>
       <c r="C1270">
         <v>169372.6528701782</v>
@@ -53825,7 +53825,7 @@
     </row>
     <row r="1275" spans="1:15">
       <c r="A1275" s="1">
-        <v>49763</v>
+        <v>49805</v>
       </c>
       <c r="C1275">
         <v>63916.14474487305</v>
@@ -54033,7 +54033,7 @@
     </row>
     <row r="1280" spans="1:15">
       <c r="A1280" s="1">
-        <v>48937</v>
+        <v>48997</v>
       </c>
       <c r="C1280">
         <v>455942.6126098633</v>
@@ -54200,7 +54200,7 @@
     </row>
     <row r="1284" spans="1:15">
       <c r="A1284" s="1">
-        <v>49242</v>
+        <v>49243</v>
       </c>
       <c r="C1284">
         <v>68475.60504150391</v>
@@ -54367,7 +54367,7 @@
     </row>
     <row r="1288" spans="1:15">
       <c r="A1288" s="1">
-        <v>49642</v>
+        <v>49644</v>
       </c>
       <c r="C1288">
         <v>53690.2438659668</v>
@@ -54534,7 +54534,7 @@
     </row>
     <row r="1292" spans="1:15">
       <c r="A1292" s="1">
-        <v>50550</v>
+        <v>50572</v>
       </c>
       <c r="C1292">
         <v>339832.984375</v>
@@ -54701,7 +54701,7 @@
     </row>
     <row r="1296" spans="1:15">
       <c r="A1296" s="1">
-        <v>50477</v>
+        <v>50499</v>
       </c>
       <c r="C1296">
         <v>227553.9958953857</v>
@@ -54868,7 +54868,7 @@
     </row>
     <row r="1300" spans="1:15">
       <c r="A1300" s="1">
-        <v>50991</v>
+        <v>51069</v>
       </c>
       <c r="C1300">
         <v>406100.9892883301</v>
@@ -55035,7 +55035,7 @@
     </row>
     <row r="1304" spans="1:15">
       <c r="A1304" s="1">
-        <v>50751</v>
+        <v>50783</v>
       </c>
       <c r="C1304">
         <v>826442.0217285156</v>
@@ -55202,7 +55202,7 @@
     </row>
     <row r="1308" spans="1:15">
       <c r="A1308" s="1">
-        <v>51391</v>
+        <v>51467</v>
       </c>
       <c r="C1308">
         <v>202465.9939727783</v>
@@ -55410,7 +55410,7 @@
     </row>
     <row r="1313" spans="1:15">
       <c r="A1313" s="1">
-        <v>51231</v>
+        <v>51237</v>
       </c>
       <c r="C1313">
         <v>69034.90488433838</v>
@@ -55618,7 +55618,7 @@
     </row>
     <row r="1318" spans="1:15">
       <c r="A1318" s="1">
-        <v>50403</v>
+        <v>50474</v>
       </c>
       <c r="C1318">
         <v>434750.2323608398</v>
@@ -55785,7 +55785,7 @@
     </row>
     <row r="1322" spans="1:15">
       <c r="A1322" s="1">
-        <v>50710</v>
+        <v>50741</v>
       </c>
       <c r="C1322">
         <v>67987.30462646484</v>
@@ -55952,7 +55952,7 @@
     </row>
     <row r="1326" spans="1:15">
       <c r="A1326" s="1">
-        <v>51110</v>
+        <v>51149</v>
       </c>
       <c r="C1326">
         <v>54400.04393005371</v>
@@ -56119,7 +56119,7 @@
     </row>
     <row r="1330" spans="1:15">
       <c r="A1330" s="1">
-        <v>52020</v>
+        <v>52059</v>
       </c>
       <c r="C1330">
         <v>225948.0958099365</v>
@@ -56453,7 +56453,7 @@
     </row>
     <row r="1338" spans="1:15">
       <c r="A1338" s="1">
-        <v>52461</v>
+        <v>52521</v>
       </c>
       <c r="C1338">
         <v>246552.5385742188</v>
@@ -56620,7 +56620,7 @@
     </row>
     <row r="1342" spans="1:15">
       <c r="A1342" s="1">
-        <v>52221</v>
+        <v>52297</v>
       </c>
       <c r="C1342">
         <v>757560.2751464844</v>
@@ -56787,7 +56787,7 @@
     </row>
     <row r="1346" spans="1:15">
       <c r="A1346" s="1">
-        <v>52861</v>
+        <v>52927</v>
       </c>
       <c r="C1346">
         <v>120413.668838501</v>
@@ -56995,7 +56995,7 @@
     </row>
     <row r="1351" spans="1:15">
       <c r="A1351" s="1">
-        <v>52701</v>
+        <v>52707</v>
       </c>
       <c r="C1351">
         <v>52483.46371459961</v>
@@ -57537,7 +57537,7 @@
     </row>
     <row r="1364" spans="1:15">
       <c r="A1364" s="1">
-        <v>52580</v>
+        <v>52594</v>
       </c>
       <c r="C1364">
         <v>45328.98332977295</v>
@@ -57704,7 +57704,7 @@
     </row>
     <row r="1368" spans="1:15">
       <c r="A1368" s="1">
-        <v>53492</v>
+        <v>53521</v>
       </c>
       <c r="C1368">
         <v>253711.1173400879</v>
@@ -57871,7 +57871,7 @@
     </row>
     <row r="1372" spans="1:15">
       <c r="A1372" s="1">
-        <v>53417</v>
+        <v>53419</v>
       </c>
       <c r="C1372">
         <v>175737.7721252441</v>
@@ -58038,7 +58038,7 @@
     </row>
     <row r="1376" spans="1:15">
       <c r="A1376" s="1">
-        <v>53933</v>
+        <v>53969</v>
       </c>
       <c r="C1376">
         <v>275657.4402313232</v>
@@ -58205,7 +58205,7 @@
     </row>
     <row r="1380" spans="1:15">
       <c r="A1380" s="1">
-        <v>53693</v>
+        <v>53769</v>
       </c>
       <c r="C1380">
         <v>778447.4136962891</v>
@@ -58372,7 +58372,7 @@
     </row>
     <row r="1384" spans="1:15">
       <c r="A1384" s="1">
-        <v>54333</v>
+        <v>54411</v>
       </c>
       <c r="C1384">
         <v>135421.7896270752</v>
@@ -58580,7 +58580,7 @@
     </row>
     <row r="1389" spans="1:15">
       <c r="A1389" s="1">
-        <v>54173</v>
+        <v>54219</v>
       </c>
       <c r="C1389">
         <v>56394.68406677246</v>
@@ -58955,7 +58955,7 @@
     </row>
     <row r="1398" spans="1:15">
       <c r="A1398" s="1">
-        <v>53652</v>
+        <v>53673</v>
       </c>
       <c r="C1398">
         <v>60398.82418823242</v>
@@ -59122,7 +59122,7 @@
     </row>
     <row r="1402" spans="1:15">
       <c r="A1402" s="1">
-        <v>54052</v>
+        <v>54081</v>
       </c>
       <c r="C1402">
         <v>51030.44361877441</v>
@@ -59289,7 +59289,7 @@
     </row>
     <row r="1406" spans="1:15">
       <c r="A1406" s="1">
-        <v>54966</v>
+        <v>54967</v>
       </c>
       <c r="C1406">
         <v>280678.2794189453</v>
@@ -59456,7 +59456,7 @@
     </row>
     <row r="1410" spans="1:15">
       <c r="A1410" s="1">
-        <v>54890</v>
+        <v>54963</v>
       </c>
       <c r="C1410">
         <v>218042.9359588623</v>
@@ -59623,7 +59623,7 @@
     </row>
     <row r="1414" spans="1:15">
       <c r="A1414" s="1">
-        <v>55407</v>
+        <v>55449</v>
       </c>
       <c r="C1414">
         <v>309934.2820281982</v>
@@ -59957,7 +59957,7 @@
     </row>
     <row r="1422" spans="1:15">
       <c r="A1422" s="1">
-        <v>55807</v>
+        <v>55869</v>
       </c>
       <c r="C1422">
         <v>155530.3711547852</v>
@@ -60165,7 +60165,7 @@
     </row>
     <row r="1427" spans="1:15">
       <c r="A1427" s="1">
-        <v>55647</v>
+        <v>55669</v>
       </c>
       <c r="C1427">
         <v>62553.04425048828</v>
@@ -60373,7 +60373,7 @@
     </row>
     <row r="1432" spans="1:15">
       <c r="A1432" s="1">
-        <v>54813</v>
+        <v>54886</v>
       </c>
       <c r="C1432">
         <v>483250.9140625</v>
@@ -60540,7 +60540,7 @@
     </row>
     <row r="1436" spans="1:15">
       <c r="A1436" s="1">
-        <v>55126</v>
+        <v>55160</v>
       </c>
       <c r="C1436">
         <v>68613.32482910156</v>
@@ -60707,7 +60707,7 @@
     </row>
     <row r="1440" spans="1:15">
       <c r="A1440" s="1">
-        <v>55526</v>
+        <v>55544</v>
       </c>
       <c r="C1440">
         <v>56360.28399658203</v>
@@ -60874,7 +60874,7 @@
     </row>
     <row r="1444" spans="1:15">
       <c r="A1444" s="1">
-        <v>56442</v>
+        <v>56449</v>
       </c>
       <c r="C1444">
         <v>268891.6189422607</v>
@@ -61041,7 +61041,7 @@
     </row>
     <row r="1448" spans="1:15">
       <c r="A1448" s="1">
-        <v>56365</v>
+        <v>56417</v>
       </c>
       <c r="C1448">
         <v>187545.974029541</v>
@@ -61208,7 +61208,7 @@
     </row>
     <row r="1452" spans="1:15">
       <c r="A1452" s="1">
-        <v>56883</v>
+        <v>56919</v>
       </c>
       <c r="C1452">
         <v>299778.1007843018</v>
@@ -61375,7 +61375,7 @@
     </row>
     <row r="1456" spans="1:15">
       <c r="A1456" s="1">
-        <v>56643</v>
+        <v>56651</v>
       </c>
       <c r="C1456">
         <v>798561.6362304688</v>
@@ -61542,7 +61542,7 @@
     </row>
     <row r="1460" spans="1:15">
       <c r="A1460" s="1">
-        <v>57283</v>
+        <v>57291</v>
       </c>
       <c r="C1460">
         <v>145323.4911651611</v>
@@ -61958,7 +61958,7 @@
     </row>
     <row r="1470" spans="1:15">
       <c r="A1470" s="1">
-        <v>56287</v>
+        <v>56345</v>
       </c>
       <c r="C1470">
         <v>413747.5695800781</v>
@@ -62125,7 +62125,7 @@
     </row>
     <row r="1474" spans="1:15">
       <c r="A1474" s="1">
-        <v>56602</v>
+        <v>56612</v>
       </c>
       <c r="C1474">
         <v>62177.46411132812</v>
@@ -62292,7 +62292,7 @@
     </row>
     <row r="1478" spans="1:15">
       <c r="A1478" s="1">
-        <v>57002</v>
+        <v>57040</v>
       </c>
       <c r="C1478">
         <v>50014.72346496582</v>
@@ -62459,7 +62459,7 @@
     </row>
     <row r="1482" spans="1:15">
       <c r="A1482" s="1">
-        <v>57920</v>
+        <v>57938</v>
       </c>
       <c r="C1482">
         <v>311655.842590332</v>
@@ -62626,7 +62626,7 @@
     </row>
     <row r="1486" spans="1:15">
       <c r="A1486" s="1">
-        <v>57842</v>
+        <v>57874</v>
       </c>
       <c r="C1486">
         <v>229533.2762756348</v>
@@ -62793,7 +62793,7 @@
     </row>
     <row r="1490" spans="1:15">
       <c r="A1490" s="1">
-        <v>58361</v>
+        <v>58381</v>
       </c>
       <c r="C1490">
         <v>352591.7850341797</v>
@@ -62960,7 +62960,7 @@
     </row>
     <row r="1494" spans="1:15">
       <c r="A1494" s="1">
-        <v>58121</v>
+        <v>58123</v>
       </c>
       <c r="C1494">
         <v>938015.9857177734</v>
@@ -63127,7 +63127,7 @@
     </row>
     <row r="1498" spans="1:15">
       <c r="A1498" s="1">
-        <v>58761</v>
+        <v>58783</v>
       </c>
       <c r="C1498">
         <v>168453.1708374023</v>
@@ -63335,7 +63335,7 @@
     </row>
     <row r="1503" spans="1:15">
       <c r="A1503" s="1">
-        <v>58601</v>
+        <v>58679</v>
       </c>
       <c r="C1503">
         <v>67101.56466674805</v>
@@ -63877,7 +63877,7 @@
     </row>
     <row r="1516" spans="1:15">
       <c r="A1516" s="1">
-        <v>58480</v>
+        <v>58513</v>
       </c>
       <c r="C1516">
         <v>56328.4638671875</v>
